--- a/LG site/요구사항명세서/LG - 요구사항 명세서.xlsx
+++ b/LG site/요구사항명세서/LG - 요구사항 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chosb\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA81FA6-85D1-47A9-A9FE-9482433EE7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A19997-BD69-44C8-A04F-E726750127CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -2581,6 +2581,126 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>주어진 이메일로 링크가 오면 해당 링크를 클릭해서 인증</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 종류 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>관리자가 등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류명과 코드를 등록</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2832,59 +2952,7 @@
       </rPr>
       <t xml:space="preserve"> - 비밀번호는 영문, 숫자만 입력 가능, C40, 필수
  - 생년월일은 'yyyy-MM-dd' 형태로 입력, 필수
- - 주소는 다음 우편번호를 이용하여 입력, 선택
- - </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>주어진 이메일로 링크가 오면 해당 링크를 클릭해서 인증</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
+ - 주소는 다음 우편번호를 이용하여 입력, 선택</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2893,7 +2961,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2904,21 +2972,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2940,13 +3012,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2994,13 +3059,6 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -3059,11 +3117,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="돋움"/>
       <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3086,7 +3144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3199,11 +3257,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3211,51 +3371,46 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3265,30 +3420,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3507,10 +3699,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3522,11 +3714,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3586,421 +3778,403 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="13.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:26" ht="98.4" thickTop="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="5">
-        <v>1</v>
+      <c r="F7" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.8">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:26" ht="13.8" customHeight="1">
+      <c r="A8" s="20"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="5">
-        <v>2</v>
+      <c r="F8" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.8">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:26" ht="13.8" customHeight="1">
+      <c r="A9" s="20"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="5">
-        <v>1</v>
+      <c r="F9" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.2">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:26" ht="13.8" customHeight="1">
+      <c r="A10" s="20"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>1</v>
+      <c r="F10" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.6">
-      <c r="A11" s="23"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="5">
-        <v>2</v>
+      <c r="F11" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.8">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:26" ht="27">
+      <c r="A12" s="20"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
+      <c r="C12" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <v>1</v>
+      <c r="F12" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="13.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
+    <row r="13" spans="1:26" ht="13.8" customHeight="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>1</v>
+      <c r="F13" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
+    <row r="14" spans="1:26" ht="83.4">
+      <c r="A14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="5">
-        <v>1</v>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+    <row r="15" spans="1:26" ht="13.8">
+      <c r="A15" s="20"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="5">
-        <v>1</v>
+      <c r="F15" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="96.6">
-      <c r="A16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>42</v>
+    <row r="16" spans="1:26" ht="26.4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="5">
-        <v>1</v>
+      <c r="F16" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="13.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>44</v>
+    <row r="17" spans="1:10" ht="13.8">
+      <c r="A17" s="21"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="26.4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>13</v>
+    <row r="18" spans="1:10" ht="27.6">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="13.8">
-      <c r="A19" s="28"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
+    <row r="19" spans="1:10" ht="26.4">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="13.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="4"/>
+    <row r="20" spans="1:10" ht="13.8">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="13.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+    <row r="21" spans="1:10" ht="55.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="54" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="13.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+    <row r="22" spans="1:10" ht="26.4">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="13.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="D23" s="4"/>
+    <row r="23" spans="1:10" ht="46.8">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="27.6">
-      <c r="A24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>23</v>
+    <row r="24" spans="1:10" ht="52.8">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="26.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="13.8">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="55.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+    <row r="27" spans="1:10" ht="13.2">
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="26.4">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+    <row r="28" spans="1:10" ht="13.2">
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="46.8">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+    <row r="29" spans="1:10" ht="13.2">
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="52.8">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+    <row r="30" spans="1:10" ht="13.2">
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="B24:B32"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B7:B15"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>

--- a/LG site/요구사항명세서/LG - 요구사항 명세서.xlsx
+++ b/LG site/요구사항명세서/LG - 요구사항 명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chosb\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\java_jsb\LG site\요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A19997-BD69-44C8-A04F-E726750127CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C00860F-A58D-492E-8AFE-9AFFDED61038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -111,17 +111,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>제품</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -151,80 +140,10 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>로그아웃</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">관리자가 등록하며 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -243,1338 +162,6 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>썸네일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스펙을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>썸네일은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품번호는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숫자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중복체크하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숫자는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조율의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개수로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">결정
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상세는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>글자들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구성
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>냉장고와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>큰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카테고리만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">가능
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품 가격은 원 단위로 입력, 정수를 입력</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번호와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제외한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1585,14 +172,6 @@
   </si>
   <si>
     <t>제품 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류, 제품썸네일, 재품번호, 제목, 제품상세, 스펙, 가격을 화면에 출력</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1771,14 +350,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>제품 목록 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일, 제품제목, 제품번호, 가격을 표시</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 수정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1819,10 +390,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">공지사항 확인 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> - </t>
     </r>
@@ -1913,40 +480,6 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>목록</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품 상세에서 확인 가능
- - 해당 제품에 대한 QnA 목록이 보여짐
- - 비밀글에는 비밀글 아이콘을 보여줌
- - 답변이 완료된 글에는 답변완료를 보여줌</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">QnA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
       <t>답변 등록</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2636,65 +1169,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>관리자가 등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류명과 코드를 등록</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>필수</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수</t>
   </si>
   <si>
     <t>필수</t>
@@ -2954,6 +1430,2911 @@
  - 생년월일은 'yyyy-MM-dd' 형태로 입력, 필수
  - 주소는 다음 우편번호를 이용하여 입력, 선택</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜한 제품 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>사용자가 찜한 제품 목록 확인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 목록 확인 (관리자)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품 목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 등록된 제품을 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류명과 코드를 등록</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>썸네일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스펙을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>썸네일은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품번호는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복체크하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조율의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">결정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글자들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구성
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>냉장고와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카테고리만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가능
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품 가격은 원 단위로 입력, 정수를 입력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - 제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - 종류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품썸네일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스펙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>썸네일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접속이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능하도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터셉터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">등록한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록과 답변 목록을 확인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록 확인(관리자)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록 확인(사용자)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자가 삭제</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인
+ - 제목으로 검색 가능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 확인 (공통)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보여짐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀글에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이콘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보여줌
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변완료를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이거 아직 안 함)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자가 등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">삭제
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그아웃</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첨부파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변 완료된 글에는 답변 완료를 올려줌</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 썸네일, 제품제목, 제품번호, 가격을 표시</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2961,7 +4342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3123,8 +4504,54 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3143,8 +4570,20 @@
         <bgColor rgb="FF26A901"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3223,19 +4662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3278,21 +4704,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3352,10 +4763,43 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3363,7 +4807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3371,55 +4815,89 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3430,57 +4908,43 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3699,10 +5163,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3714,11 +5178,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3778,401 +5242,520 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="13.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
     </row>
-    <row r="7" spans="1:26" ht="98.4" thickTop="1">
-      <c r="A7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
+    <row r="7" spans="1:26" ht="105.6" thickTop="1">
+      <c r="A7" s="57"/>
+      <c r="B7" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="15" t="s">
-        <v>47</v>
+      <c r="F7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="F8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
+      <c r="A9" s="58"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="F9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>21</v>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="F10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:26" ht="15.6">
-      <c r="A11" s="20"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>26</v>
+    <row r="11" spans="1:26" ht="13.8" customHeight="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="F11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:26" ht="27">
-      <c r="A12" s="20"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>46</v>
+    <row r="12" spans="1:26" ht="15.6">
+      <c r="A12" s="58"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="F12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
+      <c r="A13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="F13" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="83.4">
-      <c r="A14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>50</v>
+    <row r="14" spans="1:26" ht="13.8">
+      <c r="A14" s="63"/>
+      <c r="B14" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="F14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>53</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="13.8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>43</v>
+    <row r="15" spans="1:26" ht="83.4">
+      <c r="A15" s="64"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3"/>
+      <c r="F15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="26.4">
-      <c r="A16" s="20"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
+    <row r="16" spans="1:26" ht="13.8">
+      <c r="A16" s="64"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="F16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="13.8">
-      <c r="A17" s="21"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
+    <row r="17" spans="1:10" ht="26.4">
+      <c r="A17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="F17" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="27.6">
-      <c r="A18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
+    <row r="18" spans="1:10" ht="13.8">
+      <c r="A18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="3"/>
+      <c r="F18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="26.4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>28</v>
+    <row r="19" spans="1:10" ht="15.6">
+      <c r="A19" s="65"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3"/>
+      <c r="F19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="13.8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>30</v>
+    <row r="20" spans="1:10" ht="27.6">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3"/>
+      <c r="F20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="55.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="3"/>
+    <row r="21" spans="1:10" ht="26.4">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="26.4">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="3"/>
+    <row r="22" spans="1:10" ht="13.8">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="46.8">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="3"/>
+    <row r="23" spans="1:10" ht="27.6">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="52.8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="3"/>
+    <row r="24" spans="1:10" ht="31.2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="15"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="26.4">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+    <row r="25" spans="1:10" ht="13.8">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="13.8">
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="3"/>
+    <row r="26" spans="1:10" ht="55.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="13.2">
-      <c r="G27" s="3"/>
+    <row r="27" spans="1:10" ht="26.4">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="13.2">
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+    <row r="28" spans="1:10" ht="46.8">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="13.2">
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+    <row r="29" spans="1:10" ht="62.4">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="13.2">
-      <c r="G30" s="3"/>
+    <row r="30" spans="1:10" ht="31.2">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
+    <row r="31" spans="1:10" ht="15.6">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="26.4">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D36" s="47"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B20:B32"/>
+    <mergeCell ref="A20:A32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="A5:A6"/>
